--- a/ipy/alyData/沪深300股指期货.xlsx
+++ b/ipy/alyData/沪深300股指期货.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="file" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="13">
   <si>
     <t>代码</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>沪深300期货当月</t>
-  </si>
-  <si>
-    <t>数据来源：Wind</t>
   </si>
 </sst>
 </file>
@@ -451,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2417"/>
+  <dimension ref="A1:K2446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A2419" workbookViewId="0">
+      <selection activeCell="A2445" sqref="A2445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -84974,25 +84971,1038 @@
         <v>3592.4</v>
       </c>
       <c r="G2415" s="10">
-        <v>3627.6</v>
+        <v>3625.4</v>
       </c>
       <c r="H2415" s="10">
+        <v>3624.6</v>
+      </c>
+      <c r="I2415" s="10">
+        <v>35835.96</v>
+      </c>
+      <c r="J2415" s="10">
+        <v>32979</v>
+      </c>
+      <c r="K2415" s="10">
         <v>0</v>
       </c>
-      <c r="I2415" s="10">
-        <v>33945.760000000002</v>
-      </c>
-      <c r="J2415" s="10">
-        <v>31241</v>
-      </c>
-      <c r="K2415" s="10">
-        <v>9572</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2417" s="4" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="2416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2416" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2416" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2416" s="9">
+        <v>43913</v>
+      </c>
+      <c r="D2416" s="10">
+        <v>3506</v>
+      </c>
+      <c r="E2416" s="10">
+        <v>3565.2</v>
+      </c>
+      <c r="F2416" s="10">
+        <v>3477</v>
+      </c>
+      <c r="G2416" s="10">
+        <v>3508.6</v>
+      </c>
+      <c r="H2416" s="10">
+        <v>3514.8</v>
+      </c>
+      <c r="I2416" s="10">
+        <v>125028.2</v>
+      </c>
+      <c r="J2416" s="10">
+        <v>118573</v>
+      </c>
+      <c r="K2416" s="10">
+        <v>96528</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2417" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2417" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2417" s="9">
+        <v>43914</v>
+      </c>
+      <c r="D2417" s="10">
+        <v>3590</v>
+      </c>
+      <c r="E2417" s="10">
+        <v>3620.8</v>
+      </c>
+      <c r="F2417" s="10">
+        <v>3527</v>
+      </c>
+      <c r="G2417" s="10">
+        <v>3598</v>
+      </c>
+      <c r="H2417" s="10">
+        <v>3595.8</v>
+      </c>
+      <c r="I2417" s="10">
+        <v>147095.54999999999</v>
+      </c>
+      <c r="J2417" s="10">
+        <v>136783</v>
+      </c>
+      <c r="K2417" s="10">
+        <v>101898</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2418" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2418" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2418" s="9">
+        <v>43915</v>
+      </c>
+      <c r="D2418" s="10">
+        <v>3680</v>
+      </c>
+      <c r="E2418" s="10">
+        <v>3715</v>
+      </c>
+      <c r="F2418" s="10">
+        <v>3655</v>
+      </c>
+      <c r="G2418" s="10">
+        <v>3687.2</v>
+      </c>
+      <c r="H2418" s="10">
+        <v>3698.6</v>
+      </c>
+      <c r="I2418" s="10">
+        <v>140568.15</v>
+      </c>
+      <c r="J2418" s="10">
+        <v>127082</v>
+      </c>
+      <c r="K2418" s="10">
+        <v>96038</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2419" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2419" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2419" s="9">
+        <v>43916</v>
+      </c>
+      <c r="D2419" s="10">
+        <v>3660</v>
+      </c>
+      <c r="E2419" s="10">
+        <v>3705.4</v>
+      </c>
+      <c r="F2419" s="10">
+        <v>3653.8</v>
+      </c>
+      <c r="G2419" s="10">
+        <v>3663.4</v>
+      </c>
+      <c r="H2419" s="10">
+        <v>3671.6</v>
+      </c>
+      <c r="I2419" s="10">
+        <v>118773.78</v>
+      </c>
+      <c r="J2419" s="10">
+        <v>107586</v>
+      </c>
+      <c r="K2419" s="10">
+        <v>94202</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2420" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2420" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2420" s="9">
+        <v>43917</v>
+      </c>
+      <c r="D2420" s="10">
+        <v>3705</v>
+      </c>
+      <c r="E2420" s="10">
+        <v>3745</v>
+      </c>
+      <c r="F2420" s="10">
+        <v>3680</v>
+      </c>
+      <c r="G2420" s="10">
+        <v>3680.2</v>
+      </c>
+      <c r="H2420" s="10">
+        <v>3696.8</v>
+      </c>
+      <c r="I2420" s="10">
+        <v>137160.84</v>
+      </c>
+      <c r="J2420" s="10">
+        <v>123358</v>
+      </c>
+      <c r="K2420" s="10">
+        <v>97700</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2421" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2421" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2421" s="9">
+        <v>43920</v>
+      </c>
+      <c r="D2421" s="10">
+        <v>3642</v>
+      </c>
+      <c r="E2421" s="10">
+        <v>3678.8</v>
+      </c>
+      <c r="F2421" s="10">
+        <v>3617.4</v>
+      </c>
+      <c r="G2421" s="10">
+        <v>3662.8</v>
+      </c>
+      <c r="H2421" s="10">
+        <v>3655.8</v>
+      </c>
+      <c r="I2421" s="10">
+        <v>118655.79</v>
+      </c>
+      <c r="J2421" s="10">
+        <v>108469</v>
+      </c>
+      <c r="K2421" s="10">
+        <v>91561</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2422" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2422" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2422" s="9">
+        <v>43921</v>
+      </c>
+      <c r="D2422" s="10">
+        <v>3696.8</v>
+      </c>
+      <c r="E2422" s="10">
+        <v>3705.2</v>
+      </c>
+      <c r="F2422" s="10">
+        <v>3651.2</v>
+      </c>
+      <c r="G2422" s="10">
+        <v>3652</v>
+      </c>
+      <c r="H2422" s="10">
+        <v>3661</v>
+      </c>
+      <c r="I2422" s="10">
+        <v>112535.23</v>
+      </c>
+      <c r="J2422" s="10">
+        <v>102002</v>
+      </c>
+      <c r="K2422" s="10">
+        <v>91531</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2423" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2423" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2423" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D2423" s="10">
+        <v>3661</v>
+      </c>
+      <c r="E2423" s="10">
+        <v>3718.8</v>
+      </c>
+      <c r="F2423" s="10">
+        <v>3641</v>
+      </c>
+      <c r="G2423" s="10">
+        <v>3648.2</v>
+      </c>
+      <c r="H2423" s="10">
+        <v>3650</v>
+      </c>
+      <c r="I2423" s="10">
+        <v>125175.3</v>
+      </c>
+      <c r="J2423" s="10">
+        <v>113390</v>
+      </c>
+      <c r="K2423" s="10">
+        <v>96777</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2424" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2424" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2424" s="9">
+        <v>43923</v>
+      </c>
+      <c r="D2424" s="10">
+        <v>3640</v>
+      </c>
+      <c r="E2424" s="10">
+        <v>3728</v>
+      </c>
+      <c r="F2424" s="10">
+        <v>3636.2</v>
+      </c>
+      <c r="G2424" s="10">
+        <v>3726.8</v>
+      </c>
+      <c r="H2424" s="10">
+        <v>3702.4</v>
+      </c>
+      <c r="I2424" s="10">
+        <v>127501.78</v>
+      </c>
+      <c r="J2424" s="10">
+        <v>115688</v>
+      </c>
+      <c r="K2424" s="10">
+        <v>94731</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2425" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2425" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2425" s="9">
+        <v>43924</v>
+      </c>
+      <c r="D2425" s="10">
+        <v>3708.2</v>
+      </c>
+      <c r="E2425" s="10">
+        <v>3720.6</v>
+      </c>
+      <c r="F2425" s="10">
+        <v>3675</v>
+      </c>
+      <c r="G2425" s="10">
+        <v>3694.6</v>
+      </c>
+      <c r="H2425" s="10">
+        <v>3690.4</v>
+      </c>
+      <c r="I2425" s="10">
+        <v>103090.68</v>
+      </c>
+      <c r="J2425" s="10">
+        <v>92865</v>
+      </c>
+      <c r="K2425" s="10">
+        <v>87672</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2426" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2426" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2426" s="9">
+        <v>43928</v>
+      </c>
+      <c r="D2426" s="10">
+        <v>3775.4</v>
+      </c>
+      <c r="E2426" s="10">
+        <v>3795.4</v>
+      </c>
+      <c r="F2426" s="10">
+        <v>3764.2</v>
+      </c>
+      <c r="G2426" s="10">
+        <v>3775.6</v>
+      </c>
+      <c r="H2426" s="10">
+        <v>3782</v>
+      </c>
+      <c r="I2426" s="10">
+        <v>106508.82</v>
+      </c>
+      <c r="J2426" s="10">
+        <v>93993</v>
+      </c>
+      <c r="K2426" s="10">
+        <v>88098</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2427" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2427" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2427" s="9">
+        <v>43929</v>
+      </c>
+      <c r="D2427" s="10">
+        <v>3770</v>
+      </c>
+      <c r="E2427" s="10">
+        <v>3779</v>
+      </c>
+      <c r="F2427" s="10">
+        <v>3749.4</v>
+      </c>
+      <c r="G2427" s="10">
+        <v>3764.8</v>
+      </c>
+      <c r="H2427" s="10">
+        <v>3761</v>
+      </c>
+      <c r="I2427" s="10">
+        <v>92342.64</v>
+      </c>
+      <c r="J2427" s="10">
+        <v>81781</v>
+      </c>
+      <c r="K2427" s="10">
+        <v>83697</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2428" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2428" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2428" s="9">
+        <v>43930</v>
+      </c>
+      <c r="D2428" s="10">
+        <v>3784.6</v>
+      </c>
+      <c r="E2428" s="10">
+        <v>3791</v>
+      </c>
+      <c r="F2428" s="10">
+        <v>3770.4</v>
+      </c>
+      <c r="G2428" s="10">
+        <v>3779.6</v>
+      </c>
+      <c r="H2428" s="10">
+        <v>3780.6</v>
+      </c>
+      <c r="I2428" s="10">
+        <v>84368.54</v>
+      </c>
+      <c r="J2428" s="10">
+        <v>74387</v>
+      </c>
+      <c r="K2428" s="10">
+        <v>78551</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2429" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2429" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2429" s="9">
+        <v>43931</v>
+      </c>
+      <c r="D2429" s="10">
+        <v>3782.4</v>
+      </c>
+      <c r="E2429" s="10">
+        <v>3813.2</v>
+      </c>
+      <c r="F2429" s="10">
+        <v>3743.8</v>
+      </c>
+      <c r="G2429" s="10">
+        <v>3763.2</v>
+      </c>
+      <c r="H2429" s="10">
+        <v>3758.6</v>
+      </c>
+      <c r="I2429" s="10">
+        <v>112409.34</v>
+      </c>
+      <c r="J2429" s="10">
+        <v>99222</v>
+      </c>
+      <c r="K2429" s="10">
+        <v>86534</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2430" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2430" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2430" s="9">
+        <v>43934</v>
+      </c>
+      <c r="D2430" s="10">
+        <v>3746.8</v>
+      </c>
+      <c r="E2430" s="10">
+        <v>3762</v>
+      </c>
+      <c r="F2430" s="10">
+        <v>3734.8</v>
+      </c>
+      <c r="G2430" s="10">
+        <v>3745</v>
+      </c>
+      <c r="H2430" s="10">
+        <v>3744.4</v>
+      </c>
+      <c r="I2430" s="10">
+        <v>73264.14</v>
+      </c>
+      <c r="J2430" s="10">
+        <v>65187</v>
+      </c>
+      <c r="K2430" s="10">
+        <v>69609</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2431" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2431" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2431" s="9">
+        <v>43935</v>
+      </c>
+      <c r="D2431" s="10">
+        <v>3770.2</v>
+      </c>
+      <c r="E2431" s="10">
+        <v>3812</v>
+      </c>
+      <c r="F2431" s="10">
+        <v>3759</v>
+      </c>
+      <c r="G2431" s="10">
+        <v>3812</v>
+      </c>
+      <c r="H2431" s="10">
+        <v>3801.4</v>
+      </c>
+      <c r="I2431" s="10">
+        <v>90063.66</v>
+      </c>
+      <c r="J2431" s="10">
+        <v>79296</v>
+      </c>
+      <c r="K2431" s="10">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2432" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2432" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2432" s="9">
+        <v>43936</v>
+      </c>
+      <c r="D2432" s="10">
+        <v>3805</v>
+      </c>
+      <c r="E2432" s="10">
+        <v>3820.2</v>
+      </c>
+      <c r="F2432" s="10">
+        <v>3788.2</v>
+      </c>
+      <c r="G2432" s="10">
+        <v>3789.4</v>
+      </c>
+      <c r="H2432" s="10">
+        <v>3793.6</v>
+      </c>
+      <c r="I2432" s="10">
+        <v>76838.31</v>
+      </c>
+      <c r="J2432" s="10">
+        <v>67343</v>
+      </c>
+      <c r="K2432" s="10">
+        <v>50368</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2433" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2433" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2433" s="9">
+        <v>43937</v>
+      </c>
+      <c r="D2433" s="10">
+        <v>3779.2</v>
+      </c>
+      <c r="E2433" s="10">
+        <v>3805.2</v>
+      </c>
+      <c r="F2433" s="10">
+        <v>3775</v>
+      </c>
+      <c r="G2433" s="10">
+        <v>3796.8</v>
+      </c>
+      <c r="H2433" s="10">
+        <v>3795.6</v>
+      </c>
+      <c r="I2433" s="10">
+        <v>59307.97</v>
+      </c>
+      <c r="J2433" s="10">
+        <v>52172</v>
+      </c>
+      <c r="K2433" s="10">
+        <v>24808</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2434" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2434" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2434" s="9">
+        <v>43938</v>
+      </c>
+      <c r="D2434" s="10">
+        <v>3832</v>
+      </c>
+      <c r="E2434" s="10">
+        <v>3861</v>
+      </c>
+      <c r="F2434" s="10">
+        <v>3822.6</v>
+      </c>
+      <c r="G2434" s="10">
+        <v>3850.4</v>
+      </c>
+      <c r="H2434" s="10">
+        <v>3849.5</v>
+      </c>
+      <c r="I2434" s="10">
+        <v>28445.57</v>
+      </c>
+      <c r="J2434" s="10">
+        <v>24683</v>
+      </c>
+      <c r="K2434" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2435" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2435" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2435" s="9">
+        <v>43941</v>
+      </c>
+      <c r="D2435" s="10">
+        <v>3804.8</v>
+      </c>
+      <c r="E2435" s="10">
+        <v>3812</v>
+      </c>
+      <c r="F2435" s="10">
+        <v>3785.8</v>
+      </c>
+      <c r="G2435" s="10">
+        <v>3807.4</v>
+      </c>
+      <c r="H2435" s="10">
+        <v>3806.6</v>
+      </c>
+      <c r="I2435" s="10">
+        <v>73031.149999999994</v>
+      </c>
+      <c r="J2435" s="10">
+        <v>64035</v>
+      </c>
+      <c r="K2435" s="10">
+        <v>72727</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2436" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2436" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2436" s="9">
+        <v>43942</v>
+      </c>
+      <c r="D2436" s="10">
+        <v>3794</v>
+      </c>
+      <c r="E2436" s="10">
+        <v>3799</v>
+      </c>
+      <c r="F2436" s="10">
+        <v>3729</v>
+      </c>
+      <c r="G2436" s="10">
+        <v>3762.4</v>
+      </c>
+      <c r="H2436" s="10">
+        <v>3756.8</v>
+      </c>
+      <c r="I2436" s="10">
+        <v>93985.46</v>
+      </c>
+      <c r="J2436" s="10">
+        <v>83329</v>
+      </c>
+      <c r="K2436" s="10">
+        <v>84544</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2437" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2437" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2437" s="9">
+        <v>43943</v>
+      </c>
+      <c r="D2437" s="10">
+        <v>3740</v>
+      </c>
+      <c r="E2437" s="10">
+        <v>3803</v>
+      </c>
+      <c r="F2437" s="10">
+        <v>3740</v>
+      </c>
+      <c r="G2437" s="10">
+        <v>3801.6</v>
+      </c>
+      <c r="H2437" s="10">
+        <v>3788.6</v>
+      </c>
+      <c r="I2437" s="10">
+        <v>93100.84</v>
+      </c>
+      <c r="J2437" s="10">
+        <v>82359</v>
+      </c>
+      <c r="K2437" s="10">
+        <v>79178</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2438" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2438" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2438" s="9">
+        <v>43944</v>
+      </c>
+      <c r="D2438" s="10">
+        <v>3806.6</v>
+      </c>
+      <c r="E2438" s="10">
+        <v>3814.4</v>
+      </c>
+      <c r="F2438" s="10">
+        <v>3776.2</v>
+      </c>
+      <c r="G2438" s="10">
+        <v>3788.8</v>
+      </c>
+      <c r="H2438" s="10">
+        <v>3788.8</v>
+      </c>
+      <c r="I2438" s="10">
+        <v>82203.31</v>
+      </c>
+      <c r="J2438" s="10">
+        <v>72238</v>
+      </c>
+      <c r="K2438" s="10">
+        <v>81187</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2439" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2439" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2439" s="9">
+        <v>43945</v>
+      </c>
+      <c r="D2439" s="10">
+        <v>3780.8</v>
+      </c>
+      <c r="E2439" s="10">
+        <v>3784.8</v>
+      </c>
+      <c r="F2439" s="10">
+        <v>3760.4</v>
+      </c>
+      <c r="G2439" s="10">
+        <v>3775</v>
+      </c>
+      <c r="H2439" s="10">
+        <v>3767.6</v>
+      </c>
+      <c r="I2439" s="10">
+        <v>78841.08</v>
+      </c>
+      <c r="J2439" s="10">
+        <v>69684</v>
+      </c>
+      <c r="K2439" s="10">
+        <v>75461</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2440" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2440" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2440" s="9">
+        <v>43948</v>
+      </c>
+      <c r="D2440" s="10">
+        <v>3785</v>
+      </c>
+      <c r="E2440" s="10">
+        <v>3826.4</v>
+      </c>
+      <c r="F2440" s="10">
+        <v>3774.4</v>
+      </c>
+      <c r="G2440" s="10">
+        <v>3795.2</v>
+      </c>
+      <c r="H2440" s="10">
+        <v>3796.2</v>
+      </c>
+      <c r="I2440" s="10">
+        <v>85587.39</v>
+      </c>
+      <c r="J2440" s="10">
+        <v>74968</v>
+      </c>
+      <c r="K2440" s="10">
+        <v>81692</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2441" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2441" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2441" s="9">
+        <v>43949</v>
+      </c>
+      <c r="D2441" s="10">
+        <v>3808.6</v>
+      </c>
+      <c r="E2441" s="10">
+        <v>3834.8</v>
+      </c>
+      <c r="F2441" s="10">
+        <v>3743.6</v>
+      </c>
+      <c r="G2441" s="10">
+        <v>3816.8</v>
+      </c>
+      <c r="H2441" s="10">
+        <v>3818.6</v>
+      </c>
+      <c r="I2441" s="10">
+        <v>110546.56</v>
+      </c>
+      <c r="J2441" s="10">
+        <v>96935</v>
+      </c>
+      <c r="K2441" s="10">
+        <v>87228</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2442" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2442" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2442" s="9">
+        <v>43950</v>
+      </c>
+      <c r="D2442" s="10">
+        <v>3819.8</v>
+      </c>
+      <c r="E2442" s="10">
+        <v>3849.8</v>
+      </c>
+      <c r="F2442" s="10">
+        <v>3810.8</v>
+      </c>
+      <c r="G2442" s="10">
+        <v>3838.4</v>
+      </c>
+      <c r="H2442" s="10">
+        <v>3834</v>
+      </c>
+      <c r="I2442" s="10">
+        <v>80713.490000000005</v>
+      </c>
+      <c r="J2442" s="10">
+        <v>70166</v>
+      </c>
+      <c r="K2442" s="10">
+        <v>76877</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2443" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2443" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2443" s="9">
+        <v>43951</v>
+      </c>
+      <c r="D2443" s="10">
+        <v>3855</v>
+      </c>
+      <c r="E2443" s="10">
+        <v>3911.8</v>
+      </c>
+      <c r="F2443" s="10">
+        <v>3855</v>
+      </c>
+      <c r="G2443" s="10">
+        <v>3904.6</v>
+      </c>
+      <c r="H2443" s="10">
+        <v>3899.4</v>
+      </c>
+      <c r="I2443" s="10">
+        <v>95444.68</v>
+      </c>
+      <c r="J2443" s="10">
+        <v>81655</v>
+      </c>
+      <c r="K2443" s="10">
+        <v>77704</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2444" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2444" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2444" s="9">
+        <v>43957</v>
+      </c>
+      <c r="D2444" s="10">
+        <v>3860</v>
+      </c>
+      <c r="E2444" s="10">
+        <v>3924.8</v>
+      </c>
+      <c r="F2444" s="10">
+        <v>3857.8</v>
+      </c>
+      <c r="G2444" s="10">
+        <v>3916.4</v>
+      </c>
+      <c r="H2444" s="10">
+        <v>3914</v>
+      </c>
+      <c r="I2444" s="10">
+        <v>83872.639999999999</v>
+      </c>
+      <c r="J2444" s="10">
+        <v>71890</v>
+      </c>
+      <c r="K2444" s="10">
+        <v>74647</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2446" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
